--- a/Documentation/Voltage Divider Calc.xlsx
+++ b/Documentation/Voltage Divider Calc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dheard\Documents\KiCad\Projects\truss_PCB\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcalhan\Documents\GitHub\truss_PCB\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,17 +144,17 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +525,7 @@
   <dimension ref="A2:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,15 +570,15 @@
       </c>
     </row>
     <row r="7" spans="4:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V7" s="5" t="s">
+      <c r="V7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
     </row>
     <row r="8" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="3">
@@ -601,13 +601,13 @@
         <f>J8-0.1</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
     </row>
     <row r="9" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="3">
@@ -630,40 +630,40 @@
         <f>J9-0.1</f>
         <v>3.1999999999999997</v>
       </c>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
     </row>
     <row r="10" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
     </row>
     <row r="11" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
     </row>
     <row r="12" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
     </row>
     <row r="13" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V13" s="2"/>
@@ -678,60 +678,60 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="6" t="s">
+      <c r="V14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
     </row>
     <row r="15" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
     </row>
     <row r="16" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
     </row>
     <row r="17" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
     </row>
     <row r="18" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
     </row>
     <row r="19" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
     </row>
     <row r="20" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V20" s="2"/>
@@ -762,29 +762,29 @@
       </c>
     </row>
     <row r="30" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D30" s="8">
+      <c r="D30" s="6">
         <v>6</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="6">
         <v>1.23</v>
       </c>
-      <c r="G30" s="8">
-        <v>860</v>
-      </c>
-      <c r="H30" s="7">
+      <c r="G30" s="6">
+        <v>856</v>
+      </c>
+      <c r="H30" s="5">
         <f>G30*((D30/F30)-1)</f>
-        <v>3335.1219512195121</v>
+        <v>3319.6097560975609</v>
       </c>
     </row>
     <row r="32" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D32" s="7">
+      <c r="D32" s="5">
         <f>F30*(1+(H32/G32))</f>
-        <v>5.9497674418604642</v>
-      </c>
-      <c r="G32" s="8">
-        <v>860</v>
-      </c>
-      <c r="H32" s="8">
+        <v>6.5014285714285709</v>
+      </c>
+      <c r="G32" s="6">
+        <v>770</v>
+      </c>
+      <c r="H32" s="6">
         <v>3300</v>
       </c>
     </row>
